--- a/Euroavia_bot.xlsx
+++ b/Euroavia_bot.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="44">
   <si>
     <t>Communication</t>
   </si>
@@ -108,19 +108,199 @@
   </si>
   <si>
     <t>Local-Events</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Text broșură + regulament pt news, le postăm pe 7/Text înscriere news, pe 11 postăm -ddl 10 aprilie
+</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF373636"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Design tricou + stickere + afise + roll-up+badge + diplome - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF373636"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>18 aprilie</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Forumular înscriere, </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="18"/>
+        <color rgb="FF373636"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">pe 11 îl postăm- </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color rgb="FF373636"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>ddl 8 aprilie</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Plan financiar pe baza necesarului logistic - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color rgb="FF373636"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>11 aprilie</t>
+    </r>
+  </si>
+  <si>
+    <t>Necesar logistic</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Update site broșură + regulament- </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color rgb="FF373636"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>pe 7 postăm</t>
+    </r>
+  </si>
+  <si>
+    <t>Implementare plan de promovare (Teaser înscrieri + postare brosura + regulament)</t>
+  </si>
+  <si>
+    <t>Formular feedback + foaie semnături </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Postare formular înscriere - 11 aprilie
+</t>
+  </si>
+  <si>
+    <r>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF373636"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Actualizare plan financiar</t>
+    </r>
+  </si>
+  <si>
+    <t>Actualizare necesar logistic</t>
+  </si>
+  <si>
+    <t>Refacere mail uri respins</t>
+  </si>
+  <si>
+    <t>aplicatia</t>
+  </si>
+  <si>
+    <t>Grup whatsapp</t>
+  </si>
+  <si>
+    <t>Implementare plan</t>
+  </si>
+  <si>
+    <t>Centralizare înscrieri + echipe</t>
+  </si>
+  <si>
+    <t>Comanda merch roll up, stickere și afișe + diplome necompletate</t>
+  </si>
+  <si>
+    <t>Definitivare program activități gtk + energ</t>
+  </si>
+  <si>
+    <t>Update website</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF373636"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color rgb="FF373636"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF373636"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF373636"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="18"/>
+      <color rgb="FF373636"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="18"/>
+      <color rgb="FF373636"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -143,11 +323,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -464,8 +656,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection sqref="A1:G6"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -506,10 +698,10 @@
         <v>23</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>5</v>
@@ -541,9 +733,6 @@
         <v>7</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J2" s="1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -573,109 +762,99 @@
         <v>14</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J3" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="59.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="59.1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>21</v>
+      <c r="G4" s="4" t="s">
+        <v>29</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>21</v>
-      </c>
+      <c r="I4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J4" s="2"/>
     </row>
-    <row r="5" spans="1:10" ht="62.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>21</v>
+    <row r="5" spans="1:10" ht="62.1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>21</v>
+      <c r="D5" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>21</v>
+      <c r="B6" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>